--- a/MigrationManager/WebContent/resources/cmvt.xlsx
+++ b/MigrationManager/WebContent/resources/cmvt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Guide" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Validation Rules" sheetId="2" r:id="rId3"/>
     <sheet name="Reference File List" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Document Name</t>
   </si>
@@ -180,9 +180,6 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Rule Patterns:</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>ddmmyyyy = Day (eg 12) Month (eg 10) Year (eg 2014)</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -605,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -679,137 +673,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -967,33 +836,27 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1015,52 +878,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,17 +896,33 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="33" borderId="8" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="33" borderId="6" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1090,7 +930,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,13 +951,10 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,9 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -9503,7 +9337,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="174.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="174.7109375" style="8" customWidth="1"/>
     <col min="257" max="257" width="2.5703125" customWidth="1"/>
     <col min="258" max="258" width="174.7109375" customWidth="1"/>
     <col min="513" max="513" width="2.5703125" customWidth="1"/>
@@ -9633,158 +9467,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="8"/>
+      <c r="C90" s="6"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="9"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="6"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9809,431 +9643,853 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="37" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="24.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="37" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="24" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="21"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="21"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="21"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="21"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="21"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="21"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="14"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="21"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="14"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="21"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A5:B5"/>
@@ -10241,10 +10497,7 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C17 C38 C20 C23 C26 C29 C32 C35 C41">
-      <formula1>"Default Value,Leave Blank"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Record, Controlled Document, General Document"</formula1>
     </dataValidation>
@@ -10259,773 +10512,444 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118" style="49" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="118" style="19" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="50"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MigrationManager/WebContent/resources/cmvt.xlsx
+++ b/MigrationManager/WebContent/resources/cmvt.xlsx
@@ -924,18 +924,6 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -962,6 +950,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -9646,7 +9646,7 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9662,10 +9662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -9675,10 +9675,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -9686,59 +9686,59 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -10484,8 +10484,7 @@
       <c r="G88" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A7:G7"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
@@ -10512,7 +10511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10520,74 +10519,91 @@
   <cols>
     <col min="1" max="1" width="118" style="19" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="19"/>
+    <col min="3" max="18" width="18.140625" style="19" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
     </row>

--- a/MigrationManager/WebContent/resources/cmvt.xlsx
+++ b/MigrationManager/WebContent/resources/cmvt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="User Guide" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
-  <si>
-    <t>Document Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Identification Rule</t>
   </si>
@@ -58,12 +55,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Document Class</t>
-  </si>
-  <si>
-    <t>Security Class</t>
   </si>
   <si>
     <t>1) Introduction</t>
@@ -190,6 +181,9 @@
   </si>
   <si>
     <t>ddmmyyyy = Day (eg 12) Month (eg 10) Year (eg 2014)</t>
+  </si>
+  <si>
+    <t>Document Type</t>
   </si>
 </sst>
 </file>
@@ -924,6 +918,18 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -950,18 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4339,14 +4333,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -4742,14 +4736,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -4981,14 +4975,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -5382,14 +5376,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -5661,14 +5655,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -5885,14 +5879,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -6117,14 +6111,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -6355,14 +6349,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -6583,14 +6577,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -6815,14 +6809,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -7045,14 +7039,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -7505,14 +7499,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+            <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
               <a:effectLst>
                 <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:schemeClr val="tx1">
@@ -7742,14 +7736,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:effectLst>
                   <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="tx1">
@@ -7952,14 +7946,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:effectLst>
                   <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="tx1">
@@ -8205,14 +8199,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:effectLst>
                   <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="tx1">
@@ -8415,14 +8409,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:effectLst>
                   <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="tx1">
@@ -8662,14 +8656,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:effectLst>
                   <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="tx1">
@@ -8872,14 +8866,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+              <a14:hiddenEffects xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                 <a:effectLst>
                   <a:outerShdw dist="17961" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:schemeClr val="tx1">
@@ -9330,8 +9324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9468,155 +9462,155 @@
   <sheetData>
     <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="14" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="16" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+    <row r="20" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+    <row r="88" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
+      <c r="C94" s="7"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="7"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="C98" s="7"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C99" s="7"/>
     </row>
@@ -9630,7 +9624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -9645,8 +9639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9662,23 +9656,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
+      <c r="A1" s="31" t="s">
+        <v>39</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="34"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -9686,81 +9680,81 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10485,16 +10479,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
@@ -10525,10 +10519,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
